--- a/output/fit_clients/fit_round_95.xlsx
+++ b/output/fit_clients/fit_round_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8192362727.145885</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003408213301357215</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6639544495279183</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.692605737548427</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8991619615499862</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.692605737548427</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4519342220.238074</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003768774954753233</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.344327812948616</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8803082539011213</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.344327812948616</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6628079583.16971</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003690769934807505</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.445439460877863</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9041119904309155</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.445439460877863</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4179420850.680262</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004295706260363921</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.343153104266954</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8049427855836946</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.343153104266954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5026093957.805932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002824230401840897</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>27</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.150899539942912</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8339158891330756</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.150899539942912</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8407488710.756002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001267306128111742</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.457254264833114</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8987105517842899</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.457254264833114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7276271929.550881</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002966897210691186</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.184327670162264</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9392301884265026</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.184327670162264</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4877048231.919131</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003925078550206565</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.763596918081438</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8790174723309158</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.763596918081438</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4122506462.837059</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005483489904428259</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650116</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.239128249641769</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.896954142718926</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.239128249641769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4024256214.023679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001178544612647161</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.262417051526865</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7637359285380855</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.262417051526865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8850028595.355204</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001870283388343625</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.647360944452452</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.949711722424044</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.647360944452452</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6433767195.024257</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003405348106749953</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.236579786617527</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9908356763644857</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.236579786617527</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7314468747.32022</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002471381846561147</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.54596151047703</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8604093728322968</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.54596151047703</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7034906214.504473</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003790843117073653</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.599400221250453</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.057491021805263</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.8953753785806963</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.057491021805263</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8066736305.006367</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005558752715620208</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8509065531061391</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.777270538744082</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.014341149272731</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.777270538744082</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4272427505.289099</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002418146465984945</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.547319736977955</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9060590594356128</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.547319736977955</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6531646850.534073</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001190927059665368</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.580276206537996</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.8941587003489839</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.580276206537996</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2893673528.200631</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002052777535889468</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9560011477987375</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.376095774368896</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07753740617502</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.376095774368896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4199033519.035724</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001261577715878233</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.565279468699225</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.7888543452334911</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.565279468699225</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5260044715.805814</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005406019850895698</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.654100059690651</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8451020272749004</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.654100059690651</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4385906525.820053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004268521700422188</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.421085410821227</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7738689198462345</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.421085410821227</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7858936477.848371</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001819387460063068</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.114766352686591</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8364978891365766</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.114766352686591</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5551835396.464433</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003614141080968626</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818316</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.595231231282474</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9503217572712966</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.595231231282474</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7175107661.182501</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004127831074483348</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.857228284329074</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9112136129038351</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.857228284329074</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3813069086.200741</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009993466260615957</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.099866191326179</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7907910998829675</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.099866191326179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5489091118.124405</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.00336098046456585</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.450846076844026</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9015180955826652</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.450846076844026</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>9055057217.489494</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004332630095213138</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.735071983824961</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8902347968736707</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.735071983824961</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7584391497.910665</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001679536201838494</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>18</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.288533662962607</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.59349708426325</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.938982536881087</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.59349708426325</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7630142707.574897</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002859109009240883</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090876</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.049609977421159</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8294837648241911</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.049609977421159</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6385522813.489141</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002442104208135409</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>21</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.610743119900732</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.390582062913055</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.8647070412661415</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.390582062913055</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5185319926.828493</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009584109156492008</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>22</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.2889382501287201</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.555311241035831</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.4410595611214427</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.555311241035831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5977106031.725772</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002564101112807866</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.890971823540143</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8260115925232662</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.890971823540143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6747363854.081071</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004618422225630815</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.63537023579741</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7261067399050869</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.63537023579741</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4512457010.432582</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002378357412541508</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.54901623062544</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9013125265225039</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.54901623062544</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5187460434.368415</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003773599018992911</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.484876331338707</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9785925200599923</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.484876331338707</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4266178525.07497</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004779074259142016</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>22</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6017268339103888</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.441575134982086</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.8945834540984496</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.441575134982086</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4506654670.215547</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004205400645704157</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.473274279740846</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8849580579941588</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.473274279740846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4038748932.907467</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003116878133974307</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>16</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.8225871403372</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8344451609740323</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.8225871403372</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7322058998.000151</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003114743624605875</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.560297374098336</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9412512655530771</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.560297374098336</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4579142397.245339</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001355433864328779</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.817877390274194</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9047788933867906</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.817877390274194</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5543650774.593124</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005129724974377206</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.386054326533043</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9482701662512607</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.386054326533043</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4951538864.547059</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003467607536024189</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.607917546655673</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.8889052549365828</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.607917546655673</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6181276425.121792</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002187656728726997</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.388381466866808</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9002052184653012</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.388381466866808</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5803175849.179127</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001436030481615308</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.837905909881607</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.927929656401294</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.837905909881607</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10251137648.58491</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004862763767939805</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.342411974307798</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7826276730333001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.342411974307798</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7776269047.569814</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002038008038083791</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.287144566179711</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8556261720724269</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.287144566179711</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5495812075.938116</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003075002225416853</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>13</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.943575100684479</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9212094400367143</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-2.943575100684479</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4400912321.06205</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005069981883546845</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.400343503703075</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8374399557006091</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.400343503703075</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8624316756.095282</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.004008091696890836</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6797162908767972</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.079185647384602</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9796081603822375</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.079185647384602</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4327054625.091711</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003845635747182771</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.385059102846275</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9188397879868414</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.385059102846275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5561385166.310031</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001662547331116457</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.359421702489462</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8153034890791021</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.359421702489462</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7064186738.893683</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002884762921410481</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.38503787032611</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8780930974249995</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.38503787032611</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4387309934.843192</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003969679174309636</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.188245547697368</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8102540569365918</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.188245547697368</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8033399403.654782</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002676885495575477</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.361074349932242</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.874759845062582</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.361074349932242</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5327024221.802054</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002610512689216097</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.462502999302937</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8718661398169674</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.462502999302937</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8640626057.586132</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003544550431185879</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>21</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.274780029832249</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.7801352065228864</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.274780029832249</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6588177868.535355</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002855757240582855</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.278685066148734</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8105118820983037</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.278685066148734</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6729153425.917304</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003467627871847208</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.389120721901305</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8572235378492387</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.389120721901305</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5371189045.150769</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004281815612995349</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>22</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.146299656793532</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.7846099211083076</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.146299656793532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6586663015.16352</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004843238970426767</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.737163747028941</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8860043991944244</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.737163747028941</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6207491483.729844</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003541649606455375</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.008068572557577</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8400111236080023</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.008068572557577</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7933763696.212816</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004417865166034893</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>27</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.027513693710762</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5331139899831832</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.027513693710762</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4224683812.226591</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005150600044485949</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.587548208576031</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8653802849479726</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.587548208576031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6725192369.710908</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.00373018412810364</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
         <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.589723660019872</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9391546958411831</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.589723660019872</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5707721180.02938</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003945287640366679</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9086355219488823</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.463091651917123</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.036865300650894</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.463091651917123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5630693948.297661</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003655777221022777</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7368761453886438</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.716168948077441</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8899030498249093</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.716168948077441</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6859025537.032975</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002752569105498656</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.089153804899073</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6860789201303401</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.089153804899073</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5004817205.47674</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009687576730493783</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.079173823472109</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9579040454645775</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.079173823472109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7515476210.710313</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002896152156487426</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.524960920141291</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8624551100214213</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.524960920141291</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3537291020.831569</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003232948178038939</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.661373410464562</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7781719313854445</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.661373410464562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7557135770.678852</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001895509106279943</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.485178920862861</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.018574283107571</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.485178920862861</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7382646410.136237</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001056966519943429</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.689647763829787</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9277299397089691</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.689647763829787</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5538978114.534165</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003561216516893773</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>20</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.306141439175448</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8313827264591762</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.306141439175448</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6445619846.987724</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003229928244112421</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.571379881977002</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8462535102288511</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.571379881977002</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7341687604.934119</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002994609393890692</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.45921396574718</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8956609631291975</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.45921396574718</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5544543491.453394</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004346898454559142</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.4959521128059662</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.836500426435424</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.7870671528567557</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-2.836500426435424</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7948758894.806674</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00461973719084572</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>21</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9581231928530968</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.353950448527531</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.081681700629725</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.353950448527531</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5504171737.301927</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002243033466848834</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>17</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.8435323002093331</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.478250065835943</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.033182017380556</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.478250065835943</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7217520307.745053</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002996604941971011</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.614511958013658</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9346015525587842</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.614511958013658</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6691607614.831424</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004055063826801524</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.058001343397636</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9521991589637715</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.058001343397636</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7582844258.756639</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004393073506058267</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>21</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.396398486739553</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8585746135950485</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.396398486739553</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10943250119.88226</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002870169194712858</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>24</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.109579182187048</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.800813153247857</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.109579182187048</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6100407352.387729</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005131932505700879</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>22</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.241479605679516</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9152242208001498</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.241479605679516</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5720874863.07601</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003141876948189669</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.2454051775752153</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.120063940198628</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.3295132863841461</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.120063940198628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8524857502.848442</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001868102914517918</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.531852992307507</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9414481138660193</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.531852992307507</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4804364686.287539</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00141743408946684</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>28</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.7218267142144724</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.016470637694983</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.955053487581377</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.016470637694983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8375257097.95786</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005537342279698774</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.488488836396159</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8233967103416687</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.488488836396159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7614015316.540163</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00473989091600545</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.902415872288151</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9344285547287107</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.902415872288151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5919033017.508036</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002595976407017025</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.557536389658279</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9209826047067491</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.557536389658279</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7647356696.673551</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003967865120008659</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>14</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.9214235687863842</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.664164660269526</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.9435146297632311</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.664164660269526</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3403450066.772915</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003546975343407487</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.781873211454363</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.01782310711534</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.781873211454363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7515938810.70863</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001792519001378966</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.387267075564341</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8891136926459332</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.387267075564341</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5787155333.785112</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001013384317289291</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5668930594468309</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.680839560585265</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.8698950924312752</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.680839560585265</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5534733676.014874</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002559563214653202</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.562096296279536</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.8886967683396038</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.562096296279536</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>10030576595.87774</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002158460331187596</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.230304336609561</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8862401873263263</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.230304336609561</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6261873498.399169</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.00525121749686813</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>18</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.629396488925139</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8588179325970177</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.629396488925139</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8250802849.490759</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004035493930745104</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.37178779334978</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8363045978452142</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.37178779334978</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3835901271.815097</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00498676259814426</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9785972875397151</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.271027566402188</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.076629288100383</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.271027566402188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4679178336.712469</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003272367969133112</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6814325973634214</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.559897910984943</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8035309470330493</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.559897910984943</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7691642263.601851</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001119136037783905</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>22</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480225</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.55291386002478</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.075840313217981</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.55291386002478</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_95.xlsx
+++ b/output/fit_clients/fit_round_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8192362727.145885</v>
+        <v>1694795022.99341</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003408213301357215</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23</v>
+        <v>0.0844479359535147</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03742143388455196</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>847397466.0161543</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4519342220.238074</v>
+        <v>1597587939.01973</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003768774954753233</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
+        <v>0.1570730062318808</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04088031526840132</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>798793947.1841738</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6628079583.16971</v>
+        <v>3179275758.943736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003690769934807505</v>
-      </c>
-      <c r="G4" t="b">
+        <v>0.1355472220772369</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02665457507228769</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>20</v>
+      <c r="I4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1589637835.434427</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4179420850.680262</v>
+        <v>4056875848.050104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004295706260363921</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1076051207175025</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03955223341781779</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2028437923.869373</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5026093957.805932</v>
+        <v>2741031879.295532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002824230401840897</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.09347017575761428</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04706331871403351</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1370515888.980388</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8407488710.756002</v>
+        <v>2187891959.149584</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001267306128111742</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.08345211548692015</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03499659084600242</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1093946022.550129</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7276271929.550881</v>
+        <v>2669892781.242657</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002966897210691186</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24</v>
+        <v>0.1430257831200851</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02614845242977541</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1334946414.322873</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4877048231.919131</v>
+        <v>2124133729.734669</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003925078550206565</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
+        <v>0.1483103482213203</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03083539210703324</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1062066874.15987</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4122506462.837059</v>
+        <v>5270654711.142814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005483489904428259</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1784874894814366</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04427467127615909</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2635327475.757548</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4024256214.023679</v>
+        <v>3043174542.131998</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001178544612647161</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1432051072101034</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03187284079865225</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1521587216.97233</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8850028595.355204</v>
+        <v>2732521373.32156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001870283388343625</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27</v>
+        <v>0.1589326183835604</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05228821315026211</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1366260680.117972</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6433767195.024257</v>
+        <v>4475308334.700083</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003405348106749953</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>20</v>
+        <v>0.06970541751450557</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02708351937581221</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2237654198.053582</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7314468747.32022</v>
+        <v>3619284020.355913</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002471381846561147</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22</v>
+        <v>0.1168660532275351</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03757931194966097</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1809641999.702156</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7034906214.504473</v>
+        <v>1129438363.584004</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003790843117073653</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.0802988014512037</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03606960910494227</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>564719183.2206017</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8066736305.006367</v>
+        <v>2684720723.308498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005558752715620208</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>30</v>
+        <v>0.1135219022454496</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04998450274380438</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1342360375.894118</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4272427505.289099</v>
+        <v>4209981955.282488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002418146465984945</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20</v>
+        <v>0.1710484721127985</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04534335417042835</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2104991001.802673</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6531646850.534073</v>
+        <v>3345100589.902733</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001190927059665368</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27</v>
+        <v>0.160102167006537</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02344139055486269</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1672550300.133425</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2893673528.200631</v>
+        <v>1131634728.240628</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002052777535889468</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1648367593429714</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01772088260784252</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>565817425.3114431</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4199033519.035724</v>
+        <v>2172990518.415081</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001261577715878233</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1013581151178316</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.028560320836182</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1086495267.064825</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5260044715.805814</v>
+        <v>2314893484.81754</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005406019850895698</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18</v>
+        <v>0.07538662463213723</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02913502370989248</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1157446748.199016</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4385906525.820053</v>
+        <v>3264955897.110023</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004268521700422188</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
+        <v>0.1138454227048728</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04175623453049405</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1632477994.147902</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7858936477.848371</v>
+        <v>1174610306.441867</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001819387460063068</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18</v>
+        <v>0.129475715833642</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03355427835469859</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>587305193.9123847</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5551835396.464433</v>
+        <v>2735704516.481963</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003614141080968626</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>24</v>
+        <v>0.1241955781671343</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0293237776463117</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1367852311.163261</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7175107661.182501</v>
+        <v>1019775823.427755</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004127831074483348</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>22</v>
+        <v>0.0741609632026584</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02588857559270842</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>509887971.0731248</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3813069086.200741</v>
+        <v>1342190616.706595</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009993466260615957</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1131289864562506</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02630021542841733</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>671095364.1291665</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5489091118.124405</v>
+        <v>3851591218.888047</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00336098046456585</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27</v>
+        <v>0.1001938715325678</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01750311450297014</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1925795626.89515</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>9055057217.489494</v>
+        <v>2538414507.736166</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004332630095213138</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>24</v>
+        <v>0.09202941501983433</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03335789268588118</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1269207224.956873</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7584391497.910665</v>
+        <v>4866472678.374631</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001679536201838494</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>24</v>
+        <v>0.1397781765221249</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03309258630541266</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2433236295.968976</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7630142707.574897</v>
+        <v>1702721917.796604</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002859109009240883</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>30</v>
+        <v>0.1209772038241419</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02717486557050399</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>851360962.4653355</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6385522813.489141</v>
+        <v>1194528439.418648</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002442104208135409</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>19</v>
+        <v>0.1120565461725759</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0396234149068419</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>597264172.3969947</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5185319926.828493</v>
+        <v>1691929603.234713</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009584109156492008</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1168408424517605</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02438174672820377</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>845964909.6606178</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5977106031.725772</v>
+        <v>2433856605.197391</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002564101112807866</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.2074121185080183</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06009932923247941</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>27</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1216928346.364031</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6747363854.081071</v>
+        <v>1574665105.377163</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004618422225630815</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>29</v>
+        <v>0.09263609145040319</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01942414001712856</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>787332496.2672662</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4512457010.432582</v>
+        <v>1115120807.670777</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002378357412541508</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>24</v>
+        <v>0.111404432121318</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02965704183240188</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>557560397.098454</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5187460434.368415</v>
+        <v>2687026251.046498</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003773599018992911</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>27</v>
+        <v>0.1348023409972618</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01894000493213901</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1343513132.433567</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4266178525.07497</v>
+        <v>2128958077.590708</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004779074259142016</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.08233431234292823</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03799203352954588</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>24</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1064479083.742754</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4506654670.215547</v>
+        <v>1637486372.50282</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004205400645704157</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1109626237834061</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03404755940977094</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>818743216.0143298</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4038748932.907467</v>
+        <v>2132847303.590308</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003116878133974307</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1398842743829101</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02660102822421929</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1066423626.101278</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7322058998.000151</v>
+        <v>1672164729.381515</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003114743624605875</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1021185479401309</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05816110103601455</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>836082287.7056727</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4579142397.245339</v>
+        <v>2479563773.183726</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001355433864328779</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>27</v>
+        <v>0.1302598160773129</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04266377285721706</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1239781913.78284</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5543650774.593124</v>
+        <v>3489591027.578311</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005129724974377206</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>23</v>
+        <v>0.09731153717321543</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04421436006241095</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1744795507.859381</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4951538864.547059</v>
+        <v>2621319861.986174</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003467607536024189</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>23</v>
+        <v>0.1543007938006781</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01782533058236205</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1310659967.396805</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6181276425.121792</v>
+        <v>1661545095.156212</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002187656728726997</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>25</v>
+        <v>0.07251183831235393</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02464374033563933</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>830772586.3043345</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5803175849.179127</v>
+        <v>2275039225.944329</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001436030481615308</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1781028600787384</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0403926941618426</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1137519631.480436</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10251137648.58491</v>
+        <v>4641068480.839613</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004862763767939805</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>15</v>
+        <v>0.1149186446352422</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06047052665667078</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>34</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2320534246.595384</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7776269047.569814</v>
+        <v>3646034653.340858</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002038008038083791</v>
-      </c>
-      <c r="G47" t="b">
+        <v>0.1955637448829277</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0386760439328379</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="H47" t="n">
-        <v>12</v>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1823017305.661184</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5495812075.938116</v>
+        <v>3409136702.560994</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003075002225416853</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>17</v>
+        <v>0.06731226505467222</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02810944321788652</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1704568419.940738</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4400912321.06205</v>
+        <v>1596681490.932866</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005069981883546845</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.180859957811354</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02920712427381175</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>798340762.374987</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8624316756.095282</v>
+        <v>3046100763.173313</v>
       </c>
       <c r="F50" t="n">
-        <v>0.004008091696890836</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>27</v>
+        <v>0.1556067452442683</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05290432298461059</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1523050438.065293</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4327054625.091711</v>
+        <v>1534387368.48978</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003845635747182771</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1925993005215211</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03685976255186495</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>767193681.5327227</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5561385166.310031</v>
+        <v>4960472522.164874</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001662547331116457</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>23</v>
+        <v>0.09161059078517032</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04192366304590589</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>39</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2480236260.962658</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>471</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2867949200.177332</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2027878121787818</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02250475294328806</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" t="n">
-        <v>443</v>
-      </c>
-      <c r="E53" t="n">
-        <v>7064186738.893683</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.002884762921410481</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>18</v>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1433974641.597954</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4387309934.843192</v>
+        <v>4839127320.601217</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003969679174309636</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>23</v>
+        <v>0.1689156270303724</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03976977895396382</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>31</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2419563790.150132</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8033399403.654782</v>
+        <v>3288747610.275605</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002676885495575477</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>30</v>
+        <v>0.2224438940189019</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02369821538647352</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1644373748.576539</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5327024221.802054</v>
+        <v>1775401964.017041</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002610512689216097</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1013855312228967</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05164865236056553</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>887700983.4139481</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8640626057.586132</v>
+        <v>3137268820.313945</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003544550431185879</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.128611942531008</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01679307779047272</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1568634426.02481</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6588177868.535355</v>
+        <v>1832151227.948818</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002855757240582855</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>22</v>
+        <v>0.1883618520993153</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03948305743129149</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>916075614.7271197</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6729153425.917304</v>
+        <v>3958749184.040827</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003467627871847208</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.09693758540159067</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03669640711088447</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1979374569.867071</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5371189045.150769</v>
+        <v>2615790191.652417</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004281815612995349</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1419005181051342</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02687711792424213</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1307895125.81335</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6586663015.16352</v>
+        <v>2817059331.948311</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004843238970426767</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1242012931971133</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02405936017433045</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1408529663.623271</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6207491483.729844</v>
+        <v>1968724502.970066</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003541649606455375</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>16</v>
+        <v>0.1274465868208504</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04844397647652954</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>984362304.8066217</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7933763696.212816</v>
+        <v>3722400500.133232</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004417865166034893</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.06798244991097975</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04116829073041</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1861200324.777602</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4224683812.226591</v>
+        <v>5092015405.141747</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005150600044485949</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1219868923858035</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02837100272843677</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>30</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2546007815.157885</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6725192369.710908</v>
+        <v>5230627982.364406</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00373018412810364</v>
-      </c>
-      <c r="G65" t="b">
+        <v>0.1559097797987579</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0206715719784311</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="H65" t="n">
-        <v>25</v>
+      <c r="I65" t="n">
+        <v>34</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2615313936.264164</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5707721180.02938</v>
+        <v>5599605061.696527</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003945287640366679</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+        <v>0.1376438596353718</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0427963535862147</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2799802590.091203</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5630693948.297661</v>
+        <v>3193508039.717525</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003655777221022777</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.09041516102502549</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04239713074110471</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>31</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1596754021.645742</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6859025537.032975</v>
+        <v>5256616244.657194</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002752569105498656</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>20</v>
+        <v>0.1251500734412904</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03270796868636927</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>30</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2628308194.187845</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5004817205.47674</v>
+        <v>1997643933.05787</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009687576730493783</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1109251294661533</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05688787764282623</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>998821971.1091411</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7515476210.710313</v>
+        <v>3075828797.922385</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002896152156487426</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.0900437527693968</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0465319702115117</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1537914380.783007</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3537291020.831569</v>
+        <v>4585394356.012308</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003232948178038939</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1305972564521257</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02119751767095091</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>35</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2292697252.670536</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7557135770.678852</v>
+        <v>1549701733.104999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001895509106279943</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>20</v>
+        <v>0.1048228121119008</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05129456598124695</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>774850885.4702218</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7382646410.136237</v>
+        <v>2746373919.973962</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001056966519943429</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23</v>
+        <v>0.1059196205984361</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03530047524969371</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1373186979.098858</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>514</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3259903254.426814</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1199109815397532</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0270083334515278</v>
+      </c>
+      <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="D74" t="n">
-        <v>520</v>
-      </c>
-      <c r="E74" t="n">
-        <v>5538978114.534165</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.003561216516893773</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22</v>
+      <c r="I74" t="n">
+        <v>32</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1629951670.084975</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6445619846.987724</v>
+        <v>1738538739.085287</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003229928244112421</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19</v>
+        <v>0.1380870345672298</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03740043771809894</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>869269358.2239295</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7341687604.934119</v>
+        <v>3807026912.87963</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002994609393890692</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>19</v>
+        <v>0.09175048312648446</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0228217252280961</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1903513433.007762</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5544543491.453394</v>
+        <v>1526740678.473409</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004346898454559142</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>31</v>
+        <v>0.1476400661187336</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01949017282069031</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>763370330.791834</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7948758894.806674</v>
+        <v>4034748989.525427</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00461973719084572</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1334919331149179</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03557117489140455</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2017374457.943179</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5504171737.301927</v>
+        <v>1367825570.011748</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002243033466848834</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.146690770406912</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02886811214578491</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>683912795.9918414</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7217520307.745053</v>
+        <v>3527894542.016352</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002996604941971011</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>32</v>
+        <v>0.1027439289597602</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0253338991482293</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1763947246.933533</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6691607614.831424</v>
+        <v>5013853781.304782</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004055063826801524</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.1181948184087119</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02760456937460054</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>22</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2506926891.414673</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4025551456.535073</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1423452481893072</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.022999728406519</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>7582844258.756639</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004393073506058267</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+      <c r="I82" t="n">
+        <v>34</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2012775766.542665</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10943250119.88226</v>
+        <v>1683832178.002294</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002870169194712858</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>30</v>
+        <v>0.1403110015131026</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04379036365877863</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>841916034.8836133</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6100407352.387729</v>
+        <v>1766127038.10486</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005131932505700879</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>25</v>
+        <v>0.1131853640410701</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04980972076442758</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>883063558.2125883</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5720874863.07601</v>
+        <v>2652572620.444459</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003141876948189669</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1618588379594148</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04803508902228255</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1326286331.941766</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8524857502.848442</v>
+        <v>1712167882.760276</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001868102914517918</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>31</v>
+        <v>0.1669228968066306</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02706342889883711</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>856083928.9024892</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4804364686.287539</v>
+        <v>960896406.8230482</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00141743408946684</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1345688630704838</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03338051689788769</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>480448197.6163713</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8375257097.95786</v>
+        <v>2590044322.890659</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005537342279698774</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1490763487729637</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02602516235833578</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1295022151.311533</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7614015316.540163</v>
+        <v>3433108248.775882</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00473989091600545</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>21</v>
+        <v>0.150931649262263</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03637081717601642</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>32</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1716554130.66294</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5919033017.508036</v>
+        <v>1677911434.306653</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002595976407017025</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>17</v>
+        <v>0.1219156124334243</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0459569325755879</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>838955728.4048829</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7647356696.673551</v>
+        <v>1947630124.285657</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003967865120008659</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>28</v>
+        <v>0.1540631951509666</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04255947780922052</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>973815041.3152146</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3403450066.772915</v>
+        <v>2498808453.368251</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003546975343407487</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1087916575383061</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03614760030822318</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1249404210.472832</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7515938810.70863</v>
+        <v>3073256566.077641</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001792519001378966</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>32</v>
+        <v>0.1086886463253624</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03899484265449982</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>28</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1536628343.506144</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5787155333.785112</v>
+        <v>1993895176.799776</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001013384317289291</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>31</v>
+        <v>0.1240218869682558</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04079683455659533</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>996947585.939512</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5534733676.014874</v>
+        <v>2714837600.101437</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002559563214653202</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>24</v>
+        <v>0.1198741464269485</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05091745886817476</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>22</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1357418820.452897</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>10030576595.87774</v>
+        <v>1676480341.211733</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002158460331187596</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>25</v>
+        <v>0.1396740809378194</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04201153139393397</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>838240192.0506258</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6261873498.399169</v>
+        <v>4492466094.416776</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00525121749686813</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>25</v>
+        <v>0.1663781302976442</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02170585196506681</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>31</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2246233143.121759</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8250802849.490759</v>
+        <v>3119717692.120196</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004035493930745104</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>35</v>
+        <v>0.1143771028229433</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03229394845090106</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1559858838.800883</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3835901271.815097</v>
+        <v>2751814843.831695</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00498676259814426</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1367872274496204</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03115708719165072</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>30</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1375907389.796375</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4679178336.712469</v>
+        <v>3258436545.490958</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003272367969133112</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1283864984412886</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02594163679301364</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>29</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1629218284.160301</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3164284074.12962</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1372791211991894</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05507710945215721</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7691642263.601851</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001119136037783905</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>31</v>
+      <c r="I101" t="n">
+        <v>40</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1582142147.743121</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_95.xlsx
+++ b/output/fit_clients/fit_round_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1694795022.99341</v>
+        <v>2131896474.224596</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0844479359535147</v>
+        <v>0.07653486320468735</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03742143388455196</v>
+        <v>0.03134191839558624</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>847397466.0161543</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1597587939.01973</v>
+        <v>2448502853.390699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1570730062318808</v>
+        <v>0.1474958606858238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04088031526840132</v>
+        <v>0.0506279671202832</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>798793947.1841738</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3179275758.943736</v>
+        <v>4560818986.468437</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1355472220772369</v>
+        <v>0.1120093226199582</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02665457507228769</v>
+        <v>0.03687505493530513</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1589637835.434427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4056875848.050104</v>
+        <v>4175542108.4396</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1076051207175025</v>
+        <v>0.08412827826913769</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03955223341781779</v>
+        <v>0.04099383938213761</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2028437923.869373</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2741031879.295532</v>
+        <v>2300479273.381305</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09347017575761428</v>
+        <v>0.1229946148887676</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04706331871403351</v>
+        <v>0.04070416045202869</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1370515888.980388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2187891959.149584</v>
+        <v>2788667489.66704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08345211548692015</v>
+        <v>0.08033949885816009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03499659084600242</v>
+        <v>0.04895969052411172</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1093946022.550129</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2669892781.242657</v>
+        <v>3146625700.52808</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1430257831200851</v>
+        <v>0.1898259009529406</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02614845242977541</v>
+        <v>0.03270025704272081</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1334946414.322873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2124133729.734669</v>
+        <v>2291509742.07746</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1483103482213203</v>
+        <v>0.1312052269469765</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03083539210703324</v>
+        <v>0.02728156441679657</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1062066874.15987</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5270654711.142814</v>
+        <v>4988300535.014732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1784874894814366</v>
+        <v>0.18037362775134</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04427467127615909</v>
+        <v>0.03484115462901691</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2635327475.757548</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3043174542.131998</v>
+        <v>3197285691.510586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1432051072101034</v>
+        <v>0.1847603620788089</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03187284079865225</v>
+        <v>0.03979441998913603</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>40</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1521587216.97233</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2732521373.32156</v>
+        <v>3298616921.414248</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1589326183835604</v>
+        <v>0.1871656900072971</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05228821315026211</v>
+        <v>0.04643066914087054</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>34</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1366260680.117972</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4475308334.700083</v>
+        <v>3931542574.723959</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06970541751450557</v>
+        <v>0.0613180015005635</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02708351937581221</v>
+        <v>0.02817518947482421</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>32</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2237654198.053582</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3619284020.355913</v>
+        <v>3437485537.207422</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1168660532275351</v>
+        <v>0.155574940043255</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03757931194966097</v>
+        <v>0.03098750311864302</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1809641999.702156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1129438363.584004</v>
+        <v>1685019988.847826</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0802988014512037</v>
+        <v>0.08079867209304714</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03606960910494227</v>
+        <v>0.03014973782900764</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>564719183.2206017</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2684720723.308498</v>
+        <v>2687732811.749127</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1135219022454496</v>
+        <v>0.07184439195424613</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04998450274380438</v>
+        <v>0.04234117908587248</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1342360375.894118</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4209981955.282488</v>
+        <v>3360264951.889246</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1710484721127985</v>
+        <v>0.1507296372031605</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04534335417042835</v>
+        <v>0.04464216185521495</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>28</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2104991001.802673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3345100589.902733</v>
+        <v>2862871208.656643</v>
       </c>
       <c r="F18" t="n">
-        <v>0.160102167006537</v>
+        <v>0.1151854564611249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02344139055486269</v>
+        <v>0.02522515704078101</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>31</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1672550300.133425</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1131634728.240628</v>
+        <v>866721569.4237393</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1648367593429714</v>
+        <v>0.1561600240293802</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01772088260784252</v>
+        <v>0.0240259124713714</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>565817425.3114431</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2172990518.415081</v>
+        <v>2551978707.923796</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1013581151178316</v>
+        <v>0.1095848604152951</v>
       </c>
       <c r="G20" t="n">
-        <v>0.028560320836182</v>
+        <v>0.02540099974883625</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1086495267.064825</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2314893484.81754</v>
+        <v>2180708773.606261</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07538662463213723</v>
+        <v>0.0711990506132985</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02913502370989248</v>
+        <v>0.03481199813946634</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1157446748.199016</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3264955897.110023</v>
+        <v>3361079184.040951</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1138454227048728</v>
+        <v>0.1119211020510026</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04175623453049405</v>
+        <v>0.04870857261551458</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1632477994.147902</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1174610306.441867</v>
+        <v>1390504806.357661</v>
       </c>
       <c r="F23" t="n">
-        <v>0.129475715833642</v>
+        <v>0.1359931712238573</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03355427835469859</v>
+        <v>0.04413745306830778</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>587305193.9123847</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2735704516.481963</v>
+        <v>2969974932.30627</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1241955781671343</v>
+        <v>0.127455424883394</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0293237776463117</v>
+        <v>0.03725441594917275</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>28</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1367852311.163261</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1019775823.427755</v>
+        <v>1182266885.957057</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0741609632026584</v>
+        <v>0.08439162550230304</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02588857559270842</v>
+        <v>0.02051103537892778</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>509887971.0731248</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1342190616.706595</v>
+        <v>1207333876.209552</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1131289864562506</v>
+        <v>0.08809439328475469</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02630021542841733</v>
+        <v>0.03324611712552179</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>671095364.1291665</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3851591218.888047</v>
+        <v>4300508122.368283</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1001938715325678</v>
+        <v>0.1089424884613804</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01750311450297014</v>
+        <v>0.02479122129884555</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1925795626.89515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2538414507.736166</v>
+        <v>3572899054.368759</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09202941501983433</v>
+        <v>0.1053716793397207</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03335789268588118</v>
+        <v>0.03843634513150467</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>31</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1269207224.956873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4866472678.374631</v>
+        <v>5875263683.464557</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1397781765221249</v>
+        <v>0.1459279416161332</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03309258630541266</v>
+        <v>0.03884266603326236</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2433236295.968976</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1702721917.796604</v>
+        <v>2152310898.133053</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1209772038241419</v>
+        <v>0.1390341153595876</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02717486557050399</v>
+        <v>0.03310297963526588</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>851360962.4653355</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1194528439.418648</v>
+        <v>1417015281.974726</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1120565461725759</v>
+        <v>0.08766571827755903</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0396234149068419</v>
+        <v>0.034681881669019</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>597264172.3969947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1691929603.234713</v>
+        <v>1527931639.052242</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1168408424517605</v>
+        <v>0.1207170884696585</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02438174672820377</v>
+        <v>0.02568311138869748</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>845964909.6606178</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2433856605.197391</v>
+        <v>2005345552.578413</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2074121185080183</v>
+        <v>0.1511529490680447</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06009932923247941</v>
+        <v>0.04145614617717813</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>27</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1216928346.364031</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1574665105.377163</v>
+        <v>1242206382.911808</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09263609145040319</v>
+        <v>0.08156878708197146</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01942414001712856</v>
+        <v>0.01857273111857794</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>787332496.2672662</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1115120807.670777</v>
+        <v>1291810773.937665</v>
       </c>
       <c r="F35" t="n">
-        <v>0.111404432121318</v>
+        <v>0.0779808778208482</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02965704183240188</v>
+        <v>0.03811920799984216</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>557560397.098454</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2687026251.046498</v>
+        <v>3231345978.274084</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1348023409972618</v>
+        <v>0.1237794360252753</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01894000493213901</v>
+        <v>0.02027473817669544</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1343513132.433567</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2128958077.590708</v>
+        <v>2238883235.923316</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08233431234292823</v>
+        <v>0.1073481702562496</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03799203352954588</v>
+        <v>0.02660280898260247</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1064479083.742754</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1637486372.50282</v>
+        <v>2008998465.558399</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1109626237834061</v>
+        <v>0.1038793121176753</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03404755940977094</v>
+        <v>0.03839299292039969</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>818743216.0143298</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2132847303.590308</v>
+        <v>2164075909.238709</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1398842743829101</v>
+        <v>0.1446158732609271</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02660102822421929</v>
+        <v>0.02783533390601138</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1066423626.101278</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1672164729.381515</v>
+        <v>1341163620.934664</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1021185479401309</v>
+        <v>0.1184350524054709</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05816110103601455</v>
+        <v>0.04558550551235777</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>836082287.7056727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2479563773.183726</v>
+        <v>2129921841.331014</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1302598160773129</v>
+        <v>0.1151535926266726</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04266377285721706</v>
+        <v>0.04261696783031425</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1239781913.78284</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3489591027.578311</v>
+        <v>3325463563.153432</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09731153717321543</v>
+        <v>0.09866955082746946</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04421436006241095</v>
+        <v>0.03632555923399904</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1744795507.859381</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2621319861.986174</v>
+        <v>1995690469.616693</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1543007938006781</v>
+        <v>0.1818374008713463</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01782533058236205</v>
+        <v>0.02587245632783</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1310659967.396805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1661545095.156212</v>
+        <v>1783284669.178159</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07251183831235393</v>
+        <v>0.08385294048161701</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02464374033563933</v>
+        <v>0.02252496749778114</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>830772586.3043345</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2275039225.944329</v>
+        <v>2060679537.996023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1781028600787384</v>
+        <v>0.174922967587677</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0403926941618426</v>
+        <v>0.03414835817991686</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1137519631.480436</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4641068480.839613</v>
+        <v>5690577698.217072</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1149186446352422</v>
+        <v>0.1151208315749204</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06047052665667078</v>
+        <v>0.05141533353528374</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>34</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2320534246.595384</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3646034653.340858</v>
+        <v>5010013610.703282</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1955637448829277</v>
+        <v>0.1621469404284998</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0386760439328379</v>
+        <v>0.04010344298662007</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>25</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1823017305.661184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3409136702.560994</v>
+        <v>3456521794.841002</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06731226505467222</v>
+        <v>0.1076840248488116</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02810944321788652</v>
+        <v>0.03064113123003328</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1704568419.940738</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1596681490.932866</v>
+        <v>1682960367.646465</v>
       </c>
       <c r="F49" t="n">
-        <v>0.180859957811354</v>
+        <v>0.1585797675625734</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02920712427381175</v>
+        <v>0.03109986247899259</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>798340762.374987</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3046100763.173313</v>
+        <v>3929491301.147325</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1556067452442683</v>
+        <v>0.1090121735065775</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05290432298461059</v>
+        <v>0.04102937157036936</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>33</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1523050438.065293</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1534387368.48978</v>
+        <v>1198607159.78985</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1925993005215211</v>
+        <v>0.1539075167383931</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03685976255186495</v>
+        <v>0.04190180718926171</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>767193681.5327227</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4960472522.164874</v>
+        <v>4013794515.716663</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09161059078517032</v>
+        <v>0.1194319229615472</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04192366304590589</v>
+        <v>0.03875160215117296</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>39</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2480236260.962658</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2867949200.177332</v>
+        <v>2554462802.584049</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2027878121787818</v>
+        <v>0.1858751018323825</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02250475294328806</v>
+        <v>0.02401524956407644</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1433974641.597954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4839127320.601217</v>
+        <v>4882635142.096758</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1689156270303724</v>
+        <v>0.1162282995362171</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03976977895396382</v>
+        <v>0.04130183267830975</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>31</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2419563790.150132</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3288747610.275605</v>
+        <v>4093016301.682856</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2224438940189019</v>
+        <v>0.2151177106474713</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02369821538647352</v>
+        <v>0.03003547306810921</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1644373748.576539</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1775401964.017041</v>
+        <v>1555428234.997411</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1013855312228967</v>
+        <v>0.1274533625558273</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05164865236056553</v>
+        <v>0.05756367251052696</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>887700983.4139481</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3137268820.313945</v>
+        <v>3320725410.320829</v>
       </c>
       <c r="F57" t="n">
-        <v>0.128611942531008</v>
+        <v>0.1169656818648652</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01679307779047272</v>
+        <v>0.02203818888854349</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>30</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1568634426.02481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1832151227.948818</v>
+        <v>1228530933.840959</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1883618520993153</v>
+        <v>0.1624569711495743</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03948305743129149</v>
+        <v>0.0267960853676593</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>916075614.7271197</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3958749184.040827</v>
+        <v>3676635142.907551</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09693758540159067</v>
+        <v>0.08475364202289974</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03669640711088447</v>
+        <v>0.03336812276811958</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1979374569.867071</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2615790191.652417</v>
+        <v>3562781399.805526</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1419005181051342</v>
+        <v>0.204902190647662</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02687711792424213</v>
+        <v>0.02045712474023736</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1307895125.81335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2817059331.948311</v>
+        <v>2147286043.852562</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1242012931971133</v>
+        <v>0.1294372960142882</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02405936017433045</v>
+        <v>0.02599814820554245</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>33</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1408529663.623271</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1968724502.970066</v>
+        <v>1639354516.184557</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1274465868208504</v>
+        <v>0.1330963111202989</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04844397647652954</v>
+        <v>0.04494238747525393</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>984362304.8066217</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3722400500.133232</v>
+        <v>4184013082.768186</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06798244991097975</v>
+        <v>0.09032528148064914</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04116829073041</v>
+        <v>0.03957343631925539</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>27</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1861200324.777602</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5092015405.141747</v>
+        <v>4279683704.137672</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1219868923858035</v>
+        <v>0.1633125169608171</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02837100272843677</v>
+        <v>0.02397320836441129</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>30</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2546007815.157885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5230627982.364406</v>
+        <v>5090872759.152726</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1559097797987579</v>
+        <v>0.1338257351956904</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0206715719784311</v>
+        <v>0.02428279378944528</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>34</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2615313936.264164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5599605061.696527</v>
+        <v>5312907317.014993</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1376438596353718</v>
+        <v>0.1476752555021012</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0427963535862147</v>
+        <v>0.04239848296238959</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>28</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2799802590.091203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3193508039.717525</v>
+        <v>3273889101.644034</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09041516102502549</v>
+        <v>0.07417392463815342</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04239713074110471</v>
+        <v>0.03806255016170681</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>31</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1596754021.645742</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5256616244.657194</v>
+        <v>5544059314.143714</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1251500734412904</v>
+        <v>0.118348500531743</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03270796868636927</v>
+        <v>0.03570144714225846</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>30</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2628308194.187845</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1997643933.05787</v>
+        <v>2276005090.129137</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1109251294661533</v>
+        <v>0.1135021655181829</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05688787764282623</v>
+        <v>0.05696625438232491</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>998821971.1091411</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3075828797.922385</v>
+        <v>3328407287.392169</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0900437527693968</v>
+        <v>0.07697525429467808</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0465319702115117</v>
+        <v>0.04285907230632613</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1537914380.783007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4585394356.012308</v>
+        <v>4130312057.002551</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1305972564521257</v>
+        <v>0.1272282788972751</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02119751767095091</v>
+        <v>0.02383795550376706</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>35</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2292697252.670536</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1549701733.104999</v>
+        <v>2094221415.000578</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1048228121119008</v>
+        <v>0.1059727890687353</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05129456598124695</v>
+        <v>0.03831820049584121</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>774850885.4702218</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2746373919.973962</v>
+        <v>2328743996.295434</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1059196205984361</v>
+        <v>0.06855271111789771</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03530047524969371</v>
+        <v>0.04036760035415961</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>37</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1373186979.098858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3259903254.426814</v>
+        <v>3988726992.869384</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1199109815397532</v>
+        <v>0.1133553357221972</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0270083334515278</v>
+        <v>0.02280704106806554</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>32</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1629951670.084975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1738538739.085287</v>
+        <v>1995034849.382143</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1380870345672298</v>
+        <v>0.112790884330078</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03740043771809894</v>
+        <v>0.03750383525758144</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>869269358.2239295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3807026912.87963</v>
+        <v>4504207987.756258</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09175048312648446</v>
+        <v>0.07810966325914806</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0228217252280961</v>
+        <v>0.03033758930369624</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1903513433.007762</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1526740678.473409</v>
+        <v>1941167209.971408</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1476400661187336</v>
+        <v>0.1325938933345965</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01949017282069031</v>
+        <v>0.02408672519364205</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>763370330.791834</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4034748989.525427</v>
+        <v>4732132994.782358</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1334919331149179</v>
+        <v>0.08983176087677214</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03557117489140455</v>
+        <v>0.04137842443397628</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2017374457.943179</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1367825570.011748</v>
+        <v>1512171257.024569</v>
       </c>
       <c r="F79" t="n">
-        <v>0.146690770406912</v>
+        <v>0.1696053799348601</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02886811214578491</v>
+        <v>0.02714808226594503</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>683912795.9918414</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3527894542.016352</v>
+        <v>4329128402.620416</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1027439289597602</v>
+        <v>0.09464571959168093</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0253338991482293</v>
+        <v>0.02864105583296716</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1763947246.933533</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5013853781.304782</v>
+        <v>3514446902.653714</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1181948184087119</v>
+        <v>0.1234375406978461</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02760456937460054</v>
+        <v>0.02260807936614104</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>22</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2506926891.414673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4025551456.535073</v>
+        <v>4851587400.105657</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1423452481893072</v>
+        <v>0.1890416112465642</v>
       </c>
       <c r="G82" t="n">
-        <v>0.022999728406519</v>
+        <v>0.02958712000407508</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>34</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2012775766.542665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1683832178.002294</v>
+        <v>2385875136.893387</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1403110015131026</v>
+        <v>0.1088105651071608</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04379036365877863</v>
+        <v>0.031867675662796</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>841916034.8836133</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1766127038.10486</v>
+        <v>2491064597.348687</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1131853640410701</v>
+        <v>0.09046566266390528</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04980972076442758</v>
+        <v>0.04163553672597857</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>883063558.2125883</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2652572620.444459</v>
+        <v>2438749659.134207</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1618588379594148</v>
+        <v>0.1152003189745221</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04803508902228255</v>
+        <v>0.0537395062791135</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1326286331.941766</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1712167882.760276</v>
+        <v>2728127507.527839</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1669228968066306</v>
+        <v>0.1442712843175111</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02706342889883711</v>
+        <v>0.02078268952226103</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>856083928.9024892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>960896406.8230482</v>
+        <v>1002192777.007973</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1345688630704838</v>
+        <v>0.1194260353740967</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03338051689788769</v>
+        <v>0.0423736323173706</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>480448197.6163713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2590044322.890659</v>
+        <v>2352868508.115061</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1490763487729637</v>
+        <v>0.122592664318034</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02602516235833578</v>
+        <v>0.02654731115299541</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>38</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1295022151.311533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3433108248.775882</v>
+        <v>3269034170.429161</v>
       </c>
       <c r="F89" t="n">
-        <v>0.150931649262263</v>
+        <v>0.1523250233328405</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03637081717601642</v>
+        <v>0.0373445120869441</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>32</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1716554130.66294</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1677911434.306653</v>
+        <v>1360891730.69062</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1219156124334243</v>
+        <v>0.1023705286883059</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0459569325755879</v>
+        <v>0.0520042903806503</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>838955728.4048829</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1947630124.285657</v>
+        <v>2067360565.192318</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1540631951509666</v>
+        <v>0.119700953635023</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04255947780922052</v>
+        <v>0.04973356551960964</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>973815041.3152146</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2498808453.368251</v>
+        <v>1963297160.246984</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1087916575383061</v>
+        <v>0.09389038525666833</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03614760030822318</v>
+        <v>0.04644522308200005</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1249404210.472832</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3073256566.077641</v>
+        <v>4570569611.333465</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1086886463253624</v>
+        <v>0.1330222547268806</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03899484265449982</v>
+        <v>0.04214409034435017</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>28</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1536628343.506144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1993895176.799776</v>
+        <v>2043935066.248335</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1240218869682558</v>
+        <v>0.1100478568211054</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04079683455659533</v>
+        <v>0.03119192214652575</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>996947585.939512</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2714837600.101437</v>
+        <v>2367075218.381345</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1198741464269485</v>
+        <v>0.1117657226376867</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05091745886817476</v>
+        <v>0.04359661276676872</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>22</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1357418820.452897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1676480341.211733</v>
+        <v>2163833402.013858</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1396740809378194</v>
+        <v>0.09963872146299714</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04201153139393397</v>
+        <v>0.03521966183054011</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>838240192.0506258</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4492466094.416776</v>
+        <v>5363225666.06944</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1663781302976442</v>
+        <v>0.1480329820550371</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02170585196506681</v>
+        <v>0.02335683135858988</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>31</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2246233143.121759</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3119717692.120196</v>
+        <v>3942824013.42239</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1143771028229433</v>
+        <v>0.1232640066900982</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03229394845090106</v>
+        <v>0.03179135607869208</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>25</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1559858838.800883</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2751814843.831695</v>
+        <v>3278796766.896199</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1367872274496204</v>
+        <v>0.146142533507623</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03115708719165072</v>
+        <v>0.03094877518620243</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>30</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1375907389.796375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3258436545.490958</v>
+        <v>3202561102.342631</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1283864984412886</v>
+        <v>0.1413656456821069</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02594163679301364</v>
+        <v>0.01902702532016909</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>29</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1629218284.160301</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3164284074.12962</v>
+        <v>2343222665.978128</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1372791211991894</v>
+        <v>0.17647387945334</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05507710945215721</v>
+        <v>0.04773346187753049</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>40</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1582142147.743121</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_95.xlsx
+++ b/output/fit_clients/fit_round_95.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2131896474.224596</v>
+        <v>1952201246.96635</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07653486320468735</v>
+        <v>0.07880759473324578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03134191839558624</v>
+        <v>0.04487745575057528</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2448502853.390699</v>
+        <v>1941524237.808839</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1474958606858238</v>
+        <v>0.1789120609850078</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0506279671202832</v>
+        <v>0.04394081072411981</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4560818986.468437</v>
+        <v>3865210579.356468</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1120093226199582</v>
+        <v>0.1612575199605841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03687505493530513</v>
+        <v>0.03177794296489175</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4175542108.4396</v>
+        <v>2734366744.181638</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08412827826913769</v>
+        <v>0.105969101023857</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04099383938213761</v>
+        <v>0.04499326799898297</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2300479273.381305</v>
+        <v>1959272468.436435</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1229946148887676</v>
+        <v>0.09604541063915976</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04070416045202869</v>
+        <v>0.0557774001685927</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2788667489.66704</v>
+        <v>2524902625.957685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08033949885816009</v>
+        <v>0.07381146303235617</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04895969052411172</v>
+        <v>0.0495550457875685</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3146625700.52808</v>
+        <v>3315704059.19006</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1898259009529406</v>
+        <v>0.174835228362749</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03270025704272081</v>
+        <v>0.02661363994190751</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2291509742.07746</v>
+        <v>1418621338.89064</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1312052269469765</v>
+        <v>0.1652406322644314</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02728156441679657</v>
+        <v>0.03668012870506639</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4988300535.014732</v>
+        <v>4982441664.476243</v>
       </c>
       <c r="F10" t="n">
-        <v>0.18037362775134</v>
+        <v>0.1868541958143723</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03484115462901691</v>
+        <v>0.04672570255499259</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3197285691.510586</v>
+        <v>3943796511.620906</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1847603620788089</v>
+        <v>0.1875164858282704</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03979441998913603</v>
+        <v>0.04165228749886934</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3298616921.414248</v>
+        <v>2072226712.04601</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1871656900072971</v>
+        <v>0.1890607282901502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04643066914087054</v>
+        <v>0.04514368409816349</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3931542574.723959</v>
+        <v>4965023088.481381</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0613180015005635</v>
+        <v>0.07654910563913213</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02817518947482421</v>
+        <v>0.02591337697072348</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3437485537.207422</v>
+        <v>3160349874.250165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.155574940043255</v>
+        <v>0.1887435291225782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03098750311864302</v>
+        <v>0.0341549492627683</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1685019988.847826</v>
+        <v>1117080633.105985</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08079867209304714</v>
+        <v>0.07267776573707595</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03014973782900764</v>
+        <v>0.04514496375136536</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2687732811.749127</v>
+        <v>1913678850.204808</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07184439195424613</v>
+        <v>0.08804096048097407</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04234117908587248</v>
+        <v>0.03514508735749849</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3360264951.889246</v>
+        <v>5148974012.528144</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1507296372031605</v>
+        <v>0.1334638470784896</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04464216185521495</v>
+        <v>0.04721336592378702</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2862871208.656643</v>
+        <v>3354519836.709205</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1151854564611249</v>
+        <v>0.1603751072573592</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02522515704078101</v>
+        <v>0.03380245153922142</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>866721569.4237393</v>
+        <v>837456637.4260286</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1561600240293802</v>
+        <v>0.1318195546294899</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0240259124713714</v>
+        <v>0.0167505284898059</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2551978707.923796</v>
+        <v>1693578143.839695</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1095848604152951</v>
+        <v>0.1048604579631353</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02540099974883625</v>
+        <v>0.02961730860242204</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2180708773.606261</v>
+        <v>1859276814.262932</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0711990506132985</v>
+        <v>0.08790884046384671</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03481199813946634</v>
+        <v>0.03391797991867494</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3361079184.040951</v>
+        <v>3181270631.252211</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1119211020510026</v>
+        <v>0.1305771676286808</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04870857261551458</v>
+        <v>0.05144992269296798</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1390504806.357661</v>
+        <v>1031163202.814105</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1359931712238573</v>
+        <v>0.1157839851787965</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04413745306830778</v>
+        <v>0.04286438196628655</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2969974932.30627</v>
+        <v>3999543009.597907</v>
       </c>
       <c r="F24" t="n">
-        <v>0.127455424883394</v>
+        <v>0.09662006175721413</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03725441594917275</v>
+        <v>0.02808166738164822</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1182266885.957057</v>
+        <v>1079781151.5594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08439162550230304</v>
+        <v>0.08885524434687107</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02051103537892778</v>
+        <v>0.0203121478382519</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1207333876.209552</v>
+        <v>987682640.7180018</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08809439328475469</v>
+        <v>0.1005235854401106</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03324611712552179</v>
+        <v>0.03377932554511699</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4300508122.368283</v>
+        <v>3687522280.502405</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1089424884613804</v>
+        <v>0.1197528704145004</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02479122129884555</v>
+        <v>0.0185108962463879</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3572899054.368759</v>
+        <v>3219609325.517794</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1053716793397207</v>
+        <v>0.1444617295574986</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03843634513150467</v>
+        <v>0.04402280394442194</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5875263683.464557</v>
+        <v>4729954744.508232</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1459279416161332</v>
+        <v>0.1269259958169325</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03884266603326236</v>
+        <v>0.03531003568134738</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2152310898.133053</v>
+        <v>2093720966.67059</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1390341153595876</v>
+        <v>0.1024179224882214</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03310297963526588</v>
+        <v>0.03912031438174902</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1417015281.974726</v>
+        <v>1085726354.726647</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08766571827755903</v>
+        <v>0.08051176553249469</v>
       </c>
       <c r="G31" t="n">
-        <v>0.034681881669019</v>
+        <v>0.05039394626676578</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1527931639.052242</v>
+        <v>1346083578.073619</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1207170884696585</v>
+        <v>0.113308719844208</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02568311138869748</v>
+        <v>0.02948324532450954</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2005345552.578413</v>
+        <v>2456885703.396853</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1511529490680447</v>
+        <v>0.1335515875501405</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04145614617717813</v>
+        <v>0.04319846859088017</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1242206382.911808</v>
+        <v>1417750822.754185</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08156878708197146</v>
+        <v>0.1144557011064524</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01857273111857794</v>
+        <v>0.02735229646623815</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1291810773.937665</v>
+        <v>1270515679.126065</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0779808778208482</v>
+        <v>0.08456159820600173</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03811920799984216</v>
+        <v>0.04162457126743646</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3231345978.274084</v>
+        <v>2401177712.357494</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1237794360252753</v>
+        <v>0.1361475088793165</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02027473817669544</v>
+        <v>0.02571057403189767</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2238883235.923316</v>
+        <v>2385678115.71063</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1073481702562496</v>
+        <v>0.0992299772453083</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02660280898260247</v>
+        <v>0.02637375659839029</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2008998465.558399</v>
+        <v>2104832428.500913</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1038793121176753</v>
+        <v>0.08971584580616454</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03839299292039969</v>
+        <v>0.03824657483213954</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2164075909.238709</v>
+        <v>2117676592.505803</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1446158732609271</v>
+        <v>0.1438037049899319</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02783533390601138</v>
+        <v>0.02374040521094558</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1341163620.934664</v>
+        <v>1706137820.451332</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1184350524054709</v>
+        <v>0.1163336776203242</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04558550551235777</v>
+        <v>0.05713998507736239</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2129921841.331014</v>
+        <v>2523974258.355866</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1151535926266726</v>
+        <v>0.1006374993326003</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04261696783031425</v>
+        <v>0.03531089474533119</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3325463563.153432</v>
+        <v>3696304895.892908</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09866955082746946</v>
+        <v>0.08213507216180921</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03632555923399904</v>
+        <v>0.0402241651135959</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1995690469.616693</v>
+        <v>2497742596.223094</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1818374008713463</v>
+        <v>0.1717753740043883</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02587245632783</v>
+        <v>0.02118588877578296</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1783284669.178159</v>
+        <v>1652692253.085194</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08385294048161701</v>
+        <v>0.08931922230633843</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02252496749778114</v>
+        <v>0.02455324467066336</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2060679537.996023</v>
+        <v>2380779083.586426</v>
       </c>
       <c r="F45" t="n">
-        <v>0.174922967587677</v>
+        <v>0.1937415608374729</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03414835817991686</v>
+        <v>0.05544295047799652</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5690577698.217072</v>
+        <v>5056005574.143723</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1151208315749204</v>
+        <v>0.1260871935576171</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05141533353528374</v>
+        <v>0.05339968806794759</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5010013610.703282</v>
+        <v>3259877747.932104</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1621469404284998</v>
+        <v>0.1270512065474842</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04010344298662007</v>
+        <v>0.05811736352586578</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3456521794.841002</v>
+        <v>4238722807.125036</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1076840248488116</v>
+        <v>0.1008310386032736</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03064113123003328</v>
+        <v>0.03772616409630253</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1682960367.646465</v>
+        <v>1544810767.576576</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1585797675625734</v>
+        <v>0.1952761637660466</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03109986247899259</v>
+        <v>0.04064353358971977</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3929491301.147325</v>
+        <v>4139232511.580588</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1090121735065775</v>
+        <v>0.1289479398544383</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04102937157036936</v>
+        <v>0.04938967916895265</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1198607159.78985</v>
+        <v>1466338267.033729</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1539075167383931</v>
+        <v>0.1599346610422587</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04190180718926171</v>
+        <v>0.03954956575983418</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4013794515.716663</v>
+        <v>3953379355.627657</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1194319229615472</v>
+        <v>0.105263768458973</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03875160215117296</v>
+        <v>0.04733533054964251</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2554462802.584049</v>
+        <v>2378380402.715781</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1858751018323825</v>
+        <v>0.1846586420736877</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02401524956407644</v>
+        <v>0.03127260990328906</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4882635142.096758</v>
+        <v>3393858022.737199</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1162282995362171</v>
+        <v>0.1508327676684299</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04130183267830975</v>
+        <v>0.03401914056609461</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4093016301.682856</v>
+        <v>3611689904.318275</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2151177106474713</v>
+        <v>0.2006429637450483</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03003547306810921</v>
+        <v>0.01967254191180767</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1555428234.997411</v>
+        <v>1507840375.922452</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1274533625558273</v>
+        <v>0.1446894103932905</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05756367251052696</v>
+        <v>0.05650309738176504</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3320725410.320829</v>
+        <v>3155966482.671514</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1169656818648652</v>
+        <v>0.1763201254594703</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02203818888854349</v>
+        <v>0.01911074918745148</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1228530933.840959</v>
+        <v>1794591764.301774</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1624569711495743</v>
+        <v>0.163197714460618</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0267960853676593</v>
+        <v>0.03096694038272548</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3676635142.907551</v>
+        <v>3257303988.578846</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08475364202289974</v>
+        <v>0.08593134491849298</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03336812276811958</v>
+        <v>0.04585126773908334</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3562781399.805526</v>
+        <v>2312657542.969943</v>
       </c>
       <c r="F60" t="n">
-        <v>0.204902190647662</v>
+        <v>0.1961116554967358</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02045712474023736</v>
+        <v>0.0302224073880059</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2147286043.852562</v>
+        <v>2796781164.943181</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1294372960142882</v>
+        <v>0.1783215346691803</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02599814820554245</v>
+        <v>0.02625119504233468</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1639354516.184557</v>
+        <v>1280674291.716644</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1330963111202989</v>
+        <v>0.1427351566007965</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04494238747525393</v>
+        <v>0.0431174365827123</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4184013082.768186</v>
+        <v>3722511179.534657</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09032528148064914</v>
+        <v>0.07188178157971176</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03957343631925539</v>
+        <v>0.02966318254832545</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4279683704.137672</v>
+        <v>4214526128.157743</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1633125169608171</v>
+        <v>0.1783173213100776</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02397320836441129</v>
+        <v>0.02427871285155284</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5090872759.152726</v>
+        <v>4346809940.523995</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1338257351956904</v>
+        <v>0.1201333154295886</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02428279378944528</v>
+        <v>0.03231046564560586</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5312907317.014993</v>
+        <v>4675195141.603518</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1476752555021012</v>
+        <v>0.1304979088482172</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04239848296238959</v>
+        <v>0.03126459533404399</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3273889101.644034</v>
+        <v>2723329096.700891</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07417392463815342</v>
+        <v>0.07818060975641565</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03806255016170681</v>
+        <v>0.04290998078546386</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5544059314.143714</v>
+        <v>4653876404.177282</v>
       </c>
       <c r="F68" t="n">
-        <v>0.118348500531743</v>
+        <v>0.09911710242464679</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03570144714225846</v>
+        <v>0.03208274904680459</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2276005090.129137</v>
+        <v>2400804213.354206</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1135021655181829</v>
+        <v>0.1430460337987572</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05696625438232491</v>
+        <v>0.04329238820314356</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3328407287.392169</v>
+        <v>2513479469.695567</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07697525429467808</v>
+        <v>0.1030897452183418</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04285907230632613</v>
+        <v>0.03355560331299995</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4130312057.002551</v>
+        <v>4295378799.989449</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1272282788972751</v>
+        <v>0.1207285640031247</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02383795550376706</v>
+        <v>0.02758896567031149</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2094221415.000578</v>
+        <v>1782713956.002265</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1059727890687353</v>
+        <v>0.08341088755876401</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03831820049584121</v>
+        <v>0.0471177464199421</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2328743996.295434</v>
+        <v>3048806923.82443</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06855271111789771</v>
+        <v>0.08255963165943946</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04036760035415961</v>
+        <v>0.0489126046841837</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3988726992.869384</v>
+        <v>3309087721.940813</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1133553357221972</v>
+        <v>0.1767205289626316</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02280704106806554</v>
+        <v>0.03352599515710583</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1995034849.382143</v>
+        <v>2172334103.546679</v>
       </c>
       <c r="F75" t="n">
-        <v>0.112790884330078</v>
+        <v>0.1008923181008669</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03750383525758144</v>
+        <v>0.03500611437996234</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4504207987.756258</v>
+        <v>3820811935.010155</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07810966325914806</v>
+        <v>0.1105781808911515</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03033758930369624</v>
+        <v>0.02104865268183517</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1941167209.971408</v>
+        <v>1414514606.415736</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1325938933345965</v>
+        <v>0.1734019251549573</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02408672519364205</v>
+        <v>0.02805891163639771</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4732132994.782358</v>
+        <v>3776646513.237215</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08983176087677214</v>
+        <v>0.1135982855548762</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04137842443397628</v>
+        <v>0.04208468671282967</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1512171257.024569</v>
+        <v>1481174759.159352</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1696053799348601</v>
+        <v>0.1707578380653482</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02714808226594503</v>
+        <v>0.03869043342584921</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4329128402.620416</v>
+        <v>4530225901.41322</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09464571959168093</v>
+        <v>0.09140778167643433</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02864105583296716</v>
+        <v>0.02821777351414789</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3514446902.653714</v>
+        <v>3521729739.875215</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1234375406978461</v>
+        <v>0.08372420917974333</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02260807936614104</v>
+        <v>0.02108730478756876</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4851587400.105657</v>
+        <v>5088528899.80095</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1890416112465642</v>
+        <v>0.1964245497815915</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02958712000407508</v>
+        <v>0.02862326817351293</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2385875136.893387</v>
+        <v>2347646420.589273</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1088105651071608</v>
+        <v>0.1273154699108943</v>
       </c>
       <c r="G83" t="n">
-        <v>0.031867675662796</v>
+        <v>0.0401976923677347</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2491064597.348687</v>
+        <v>2355839554.237079</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09046566266390528</v>
+        <v>0.1174277268779391</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04163553672597857</v>
+        <v>0.03245804026628023</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2438749659.134207</v>
+        <v>2910658746.484933</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1152003189745221</v>
+        <v>0.1189008425398356</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0537395062791135</v>
+        <v>0.05597863229428206</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2728127507.527839</v>
+        <v>2338217610.649971</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1442712843175111</v>
+        <v>0.1097754186253563</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02078268952226103</v>
+        <v>0.01695157148914859</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1002192777.007973</v>
+        <v>1265063647.276208</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1194260353740967</v>
+        <v>0.1240096503351038</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0423736323173706</v>
+        <v>0.03795814898291729</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2352868508.115061</v>
+        <v>3470216503.734477</v>
       </c>
       <c r="F88" t="n">
-        <v>0.122592664318034</v>
+        <v>0.1404891504376992</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02654731115299541</v>
+        <v>0.02806449477477692</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3269034170.429161</v>
+        <v>2203510775.492806</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1523250233328405</v>
+        <v>0.1215923769163842</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0373445120869441</v>
+        <v>0.0267857368665278</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1360891730.69062</v>
+        <v>1350823164.959145</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1023705286883059</v>
+        <v>0.1121017620247587</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0520042903806503</v>
+        <v>0.0392408284202866</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2067360565.192318</v>
+        <v>1967533973.518738</v>
       </c>
       <c r="F91" t="n">
-        <v>0.119700953635023</v>
+        <v>0.1331797397956248</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04973356551960964</v>
+        <v>0.04067753900637956</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1963297160.246984</v>
+        <v>2374823142.761392</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09389038525666833</v>
+        <v>0.08525221737232802</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04644522308200005</v>
+        <v>0.04155304874407007</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4570569611.333465</v>
+        <v>3746878421.607252</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1330222547268806</v>
+        <v>0.1155454501332194</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04214409034435017</v>
+        <v>0.04640218031976346</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2043935066.248335</v>
+        <v>1899626925.252347</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1100478568211054</v>
+        <v>0.1495570083370392</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03119192214652575</v>
+        <v>0.03627468597818859</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2367075218.381345</v>
+        <v>2675387023.507368</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1117657226376867</v>
+        <v>0.1361661128669038</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04359661276676872</v>
+        <v>0.04669166429645023</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2163833402.013858</v>
+        <v>2330592987.58585</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09963872146299714</v>
+        <v>0.1301802035381518</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03521966183054011</v>
+        <v>0.04266386798742166</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5363225666.06944</v>
+        <v>4589101049.670498</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1480329820550371</v>
+        <v>0.1659434104167517</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02335683135858988</v>
+        <v>0.02260246636405028</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3942824013.42239</v>
+        <v>2510358904.836072</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1232640066900982</v>
+        <v>0.08908942327719592</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03179135607869208</v>
+        <v>0.02566213789732014</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3278796766.896199</v>
+        <v>3109001546.151552</v>
       </c>
       <c r="F99" t="n">
-        <v>0.146142533507623</v>
+        <v>0.1060221253704657</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03094877518620243</v>
+        <v>0.03227154458104887</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3202561102.342631</v>
+        <v>3889668931.928976</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1413656456821069</v>
+        <v>0.1688488498817384</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01902702532016909</v>
+        <v>0.02074409098178667</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2343222665.978128</v>
+        <v>3413820665.698561</v>
       </c>
       <c r="F101" t="n">
-        <v>0.17647387945334</v>
+        <v>0.1728886697839888</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04773346187753049</v>
+        <v>0.05669243812678523</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_95.xlsx
+++ b/output/fit_clients/fit_round_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1952201246.96635</v>
+        <v>2309357664.497462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07880759473324578</v>
+        <v>0.08712709310690374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04487745575057528</v>
+        <v>0.0372164006292879</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1941524237.808839</v>
+        <v>2061033305.439865</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1789120609850078</v>
+        <v>0.1819294908679923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04394081072411981</v>
+        <v>0.03311571649068226</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3865210579.356468</v>
+        <v>4829286561.582215</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1612575199605841</v>
+        <v>0.1162177446213035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03177794296489175</v>
+        <v>0.03565958067003479</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94</v>
+      </c>
+      <c r="K4" t="n">
+        <v>166.0715905012478</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2734366744.181638</v>
+        <v>3400905646.090241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105969101023857</v>
+        <v>0.09558440962262141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04499326799898297</v>
+        <v>0.03781212780190921</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1959272468.436435</v>
+        <v>2787315157.388264</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09604541063915976</v>
+        <v>0.1073844370063149</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0557774001685927</v>
+        <v>0.04251087072949505</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2524902625.957685</v>
+        <v>2282602006.725795</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07381146303235617</v>
+        <v>0.09247604018726585</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0495550457875685</v>
+        <v>0.0350370803336019</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3315704059.19006</v>
+        <v>2727819946.764096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.174835228362749</v>
+        <v>0.1363940516990362</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02661363994190751</v>
+        <v>0.02187171228332968</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26</v>
+      </c>
+      <c r="J8" t="n">
+        <v>94</v>
+      </c>
+      <c r="K8" t="n">
+        <v>62.35455381897422</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1418621338.89064</v>
+        <v>2145581825.307664</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1652406322644314</v>
+        <v>0.1340176199388835</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03668012870506639</v>
+        <v>0.02505220052481041</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4982441664.476243</v>
+        <v>4484144363.103624</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1868541958143723</v>
+        <v>0.1602456738256017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04672570255499259</v>
+        <v>0.05332750670927338</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>89</v>
+      </c>
+      <c r="J10" t="n">
+        <v>95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>185.6618478473819</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3943796511.620906</v>
+        <v>2906338411.160799</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1875164858282704</v>
+        <v>0.1615149027300193</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04165228749886934</v>
+        <v>0.03872393238764911</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>93</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2072226712.04601</v>
+        <v>2752839326.088409</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1890607282901502</v>
+        <v>0.155987966677837</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04514368409816349</v>
+        <v>0.04721494721088671</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4965023088.481381</v>
+        <v>4725642857.587345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07654910563913213</v>
+        <v>0.08783144620643481</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02591337697072348</v>
+        <v>0.02573852262786372</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>48</v>
+      </c>
+      <c r="J13" t="n">
+        <v>94</v>
+      </c>
+      <c r="K13" t="n">
+        <v>160.6246251350769</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3160349874.250165</v>
+        <v>2718882666.783252</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1887435291225782</v>
+        <v>0.1612352241437744</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0341549492627683</v>
+        <v>0.03586775228564189</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>92</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1117080633.105985</v>
+        <v>1407905943.484797</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07267776573707595</v>
+        <v>0.08307871397213161</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04514496375136536</v>
+        <v>0.04453822282808498</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1913678850.204808</v>
+        <v>2620573923.017264</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08804096048097407</v>
+        <v>0.08717517626052686</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03514508735749849</v>
+        <v>0.04558797500635428</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5148974012.528144</v>
+        <v>4057726692.468319</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1334638470784896</v>
+        <v>0.1486407186204498</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04721336592378702</v>
+        <v>0.04442947995988691</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>46</v>
+      </c>
+      <c r="J17" t="n">
+        <v>94</v>
+      </c>
+      <c r="K17" t="n">
+        <v>120.8943681609823</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3354519836.709205</v>
+        <v>3649693181.193703</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1603751072573592</v>
+        <v>0.1301580369246304</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03380245153922142</v>
+        <v>0.02783341752162766</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>95</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>837456637.4260286</v>
+        <v>1138131553.195662</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1318195546294899</v>
+        <v>0.1756627501428989</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0167505284898059</v>
+        <v>0.01932140504971763</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1693578143.839695</v>
+        <v>2411212798.445881</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1048604579631353</v>
+        <v>0.1053372195273743</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02961730860242204</v>
+        <v>0.03114737419241084</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1859276814.262932</v>
+        <v>2348648676.538415</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08790884046384671</v>
+        <v>0.08078153822193213</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03391797991867494</v>
+        <v>0.03688854507668796</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3181270631.252211</v>
+        <v>3378915208.58328</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1305771676286808</v>
+        <v>0.1328814915913893</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05144992269296798</v>
+        <v>0.05451300826057084</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>95</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1031163202.814105</v>
+        <v>1463899602.426932</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1157839851787965</v>
+        <v>0.1478242741350143</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04286438196628655</v>
+        <v>0.04755677175442936</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3999543009.597907</v>
+        <v>3206997977.609336</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09662006175721413</v>
+        <v>0.1384538789895689</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02808166738164822</v>
+        <v>0.03089632033907006</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1079781151.5594</v>
+        <v>986096751.0598638</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08885524434687107</v>
+        <v>0.1017462025594129</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0203121478382519</v>
+        <v>0.02531489054634437</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>987682640.7180018</v>
+        <v>959551191.1284717</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1005235854401106</v>
+        <v>0.08528236908385471</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03377932554511699</v>
+        <v>0.02686595407620863</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3687522280.502405</v>
+        <v>3110053786.866077</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1197528704145004</v>
+        <v>0.1291247491641064</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0185108962463879</v>
+        <v>0.02358829262628332</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37</v>
+      </c>
+      <c r="J27" t="n">
+        <v>93</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3219609325.517794</v>
+        <v>3435508728.521539</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1444617295574986</v>
+        <v>0.1000367101519384</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04402280394442194</v>
+        <v>0.0455487238031284</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4729954744.508232</v>
+        <v>5710296039.935438</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1269259958169325</v>
+        <v>0.1475694985950913</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03531003568134738</v>
+        <v>0.04550580565548169</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>89</v>
+      </c>
+      <c r="J29" t="n">
+        <v>95</v>
+      </c>
+      <c r="K29" t="n">
+        <v>195.82040017326</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2093720966.67059</v>
+        <v>1599118160.563935</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1024179224882214</v>
+        <v>0.09105255854244337</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03912031438174902</v>
+        <v>0.03222170340839692</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1085726354.726647</v>
+        <v>1038255840.884861</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08051176553249469</v>
+        <v>0.07094738546209252</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05039394626676578</v>
+        <v>0.05066143309056744</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1346083578.073619</v>
+        <v>1198115815.987731</v>
       </c>
       <c r="F32" t="n">
-        <v>0.113308719844208</v>
+        <v>0.08373890952143767</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02948324532450954</v>
+        <v>0.02758754554086822</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2456885703.396853</v>
+        <v>2028664134.379756</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1335515875501405</v>
+        <v>0.1627168328008549</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04319846859088017</v>
+        <v>0.04618430864013193</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1417750822.754185</v>
+        <v>1356083424.992869</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1144557011064524</v>
+        <v>0.116732477024562</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02735229646623815</v>
+        <v>0.01922541401528971</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1270515679.126065</v>
+        <v>1294602452.526865</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08456159820600173</v>
+        <v>0.07461317332074566</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04162457126743646</v>
+        <v>0.0286802192520211</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2401177712.357494</v>
+        <v>2193561074.070988</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1361475088793165</v>
+        <v>0.1249129164280043</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02571057403189767</v>
+        <v>0.02305453472722778</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2385678115.71063</v>
+        <v>2189987504.595168</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0992299772453083</v>
+        <v>0.08124333473239946</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02637375659839029</v>
+        <v>0.0353091677650795</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2104832428.500913</v>
+        <v>1489568519.429868</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08971584580616454</v>
+        <v>0.1100458846278499</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03824657483213954</v>
+        <v>0.02749322334594192</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2117676592.505803</v>
+        <v>2021492102.249642</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1438037049899319</v>
+        <v>0.129711767205933</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02374040521094558</v>
+        <v>0.03220536518841707</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1706137820.451332</v>
+        <v>1615158167.163498</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1163336776203242</v>
+        <v>0.1600026789402383</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05713998507736239</v>
+        <v>0.05174938287157937</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2523974258.355866</v>
+        <v>1880959908.976365</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1006374993326003</v>
+        <v>0.1345539606259142</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03531089474533119</v>
+        <v>0.04596773516733543</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3696304895.892908</v>
+        <v>2686793445.224082</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08213507216180921</v>
+        <v>0.1064970314302505</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0402241651135959</v>
+        <v>0.04427441216122978</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>36</v>
+      </c>
+      <c r="J42" t="n">
+        <v>93</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2497742596.223094</v>
+        <v>2911431028.292344</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1717753740043883</v>
+        <v>0.1890726492219676</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02118588877578296</v>
+        <v>0.0239618734044195</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1652692253.085194</v>
+        <v>2288299034.322173</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08931922230633843</v>
+        <v>0.07907085188950191</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02455324467066336</v>
+        <v>0.02821616961421346</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2380779083.586426</v>
+        <v>2271594845.246618</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1937415608374729</v>
+        <v>0.1178783982275922</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05544295047799652</v>
+        <v>0.034184167429794</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5056005574.143723</v>
+        <v>4799300479.813923</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1260871935576171</v>
+        <v>0.1438394376376158</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05339968806794759</v>
+        <v>0.04724881561849705</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>54</v>
+      </c>
+      <c r="J46" t="n">
+        <v>95</v>
+      </c>
+      <c r="K46" t="n">
+        <v>167.1606774914749</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3259877747.932104</v>
+        <v>5082416132.519127</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1270512065474842</v>
+        <v>0.1731528142372549</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05811736352586578</v>
+        <v>0.05432529780109493</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>42</v>
+      </c>
+      <c r="J47" t="n">
+        <v>94</v>
+      </c>
+      <c r="K47" t="n">
+        <v>139.4356253678848</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4238722807.125036</v>
+        <v>3390218526.985298</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1008310386032736</v>
+        <v>0.07805247045854781</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03772616409630253</v>
+        <v>0.02548265217573087</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>36</v>
+      </c>
+      <c r="J48" t="n">
+        <v>94</v>
+      </c>
+      <c r="K48" t="n">
+        <v>98.82315743188845</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1544810767.576576</v>
+        <v>1646412380.817207</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1952761637660466</v>
+        <v>0.1713893175877821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04064353358971977</v>
+        <v>0.02740164579579672</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4139232511.580588</v>
+        <v>3092221900.210953</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1289479398544383</v>
+        <v>0.153025049901336</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04938967916895265</v>
+        <v>0.03660863761326382</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="n">
+        <v>92</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1466338267.033729</v>
+        <v>1239602627.456981</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1599346610422587</v>
+        <v>0.1844712283520029</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03954956575983418</v>
+        <v>0.0403112876082686</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3953379355.627657</v>
+        <v>5308221908.367327</v>
       </c>
       <c r="F52" t="n">
-        <v>0.105263768458973</v>
+        <v>0.106392679375537</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04733533054964251</v>
+        <v>0.05543813487139176</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>73</v>
+      </c>
+      <c r="J52" t="n">
+        <v>95</v>
+      </c>
+      <c r="K52" t="n">
+        <v>176.8212800755091</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2378380402.715781</v>
+        <v>2390273974.844326</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1846586420736877</v>
+        <v>0.1666694113640373</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03127260990328906</v>
+        <v>0.02225386745919013</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3393858022.737199</v>
+        <v>3847068870.404466</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1508327676684299</v>
+        <v>0.1558894862345226</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03401914056609461</v>
+        <v>0.0445524026789728</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>43</v>
+      </c>
+      <c r="J54" t="n">
+        <v>94</v>
+      </c>
+      <c r="K54" t="n">
+        <v>122.9162840477266</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3611689904.318275</v>
+        <v>4346555648.229518</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2006429637450483</v>
+        <v>0.195898667653143</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01967254191180767</v>
+        <v>0.02499955166351313</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>43</v>
+      </c>
+      <c r="J55" t="n">
+        <v>95</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1507840375.922452</v>
+        <v>1746494726.62276</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1446894103932905</v>
+        <v>0.1543852168883256</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05650309738176504</v>
+        <v>0.05743683328759355</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3155966482.671514</v>
+        <v>4511125680.16715</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1763201254594703</v>
+        <v>0.1693659237624504</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01911074918745148</v>
+        <v>0.02233963925381453</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>36</v>
+      </c>
+      <c r="J57" t="n">
+        <v>94</v>
+      </c>
+      <c r="K57" t="n">
+        <v>157.3465749892947</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1794591764.301774</v>
+        <v>1290741986.728453</v>
       </c>
       <c r="F58" t="n">
-        <v>0.163197714460618</v>
+        <v>0.1419828530000929</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03096694038272548</v>
+        <v>0.02487373481630993</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3257303988.578846</v>
+        <v>4844778195.083705</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08593134491849298</v>
+        <v>0.1161015760902308</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04585126773908334</v>
+        <v>0.03521085474276726</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>46</v>
+      </c>
+      <c r="J59" t="n">
+        <v>95</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2312657542.969943</v>
+        <v>2920188753.588582</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1961116554967358</v>
+        <v>0.182001735806933</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0302224073880059</v>
+        <v>0.03051356667134614</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>92</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2796781164.943181</v>
+        <v>2223650365.70661</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1783215346691803</v>
+        <v>0.1284793331592924</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02625119504233468</v>
+        <v>0.02213101675181451</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1280674291.716644</v>
+        <v>1397942589.946284</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1427351566007965</v>
+        <v>0.187561821516958</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0431174365827123</v>
+        <v>0.03503287647485256</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3722511179.534657</v>
+        <v>3916407251.269358</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07188178157971176</v>
+        <v>0.1045530007719376</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02966318254832545</v>
+        <v>0.04728013796137106</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>47</v>
+      </c>
+      <c r="J63" t="n">
+        <v>94</v>
+      </c>
+      <c r="K63" t="n">
+        <v>116.2470397533182</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4214526128.157743</v>
+        <v>3864473501.976633</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1783173213100776</v>
+        <v>0.1196106306834029</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02427871285155284</v>
+        <v>0.02273928284731407</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>47</v>
+      </c>
+      <c r="J64" t="n">
+        <v>94</v>
+      </c>
+      <c r="K64" t="n">
+        <v>119.5513159460961</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4346809940.523995</v>
+        <v>4627133248.809292</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1201333154295886</v>
+        <v>0.1381400495958657</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03231046564560586</v>
+        <v>0.0317899370855205</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>76</v>
+      </c>
+      <c r="J65" t="n">
+        <v>95</v>
+      </c>
+      <c r="K65" t="n">
+        <v>171.5648847572598</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4675195141.603518</v>
+        <v>5234745492.218016</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1304979088482172</v>
+        <v>0.1047602135535623</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03126459533404399</v>
+        <v>0.04738781705814795</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>47</v>
+      </c>
+      <c r="J66" t="n">
+        <v>94</v>
+      </c>
+      <c r="K66" t="n">
+        <v>158.2026381256382</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2723329096.700891</v>
+        <v>2852902097.411621</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07818060975641565</v>
+        <v>0.07212851616608791</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04290998078546386</v>
+        <v>0.04421746422105403</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4653876404.177282</v>
+        <v>4133337005.091775</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09911710242464679</v>
+        <v>0.1155232236268903</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03208274904680459</v>
+        <v>0.04794703134837922</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>47</v>
+      </c>
+      <c r="J68" t="n">
+        <v>95</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2400804213.354206</v>
+        <v>2098967957.977865</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1430460337987572</v>
+        <v>0.1512073175222987</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04329238820314356</v>
+        <v>0.037399226261729</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2513479469.695567</v>
+        <v>3288626814.388204</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030897452183418</v>
+        <v>0.099428420199767</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03355560331299995</v>
+        <v>0.0455836213878947</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4295378799.989449</v>
+        <v>3626636308.07753</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1207285640031247</v>
+        <v>0.1611669908200189</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02758896567031149</v>
+        <v>0.02540538556537872</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>78</v>
+      </c>
+      <c r="J71" t="n">
+        <v>94</v>
+      </c>
+      <c r="K71" t="n">
+        <v>114.3081902321096</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1782713956.002265</v>
+        <v>2000508705.034045</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08341088755876401</v>
+        <v>0.06967682565121698</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0471177464199421</v>
+        <v>0.04993883595895405</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3048806923.82443</v>
+        <v>2646634185.921242</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08255963165943946</v>
+        <v>0.08433586184444043</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0489126046841837</v>
+        <v>0.05089235769238443</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3309087721.940813</v>
+        <v>3851390848.060674</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1767205289626316</v>
+        <v>0.135052488495175</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03352599515710583</v>
+        <v>0.02547348566499652</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30</v>
+      </c>
+      <c r="J74" t="n">
+        <v>95</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2172334103.546679</v>
+        <v>2233056358.490837</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1008923181008669</v>
+        <v>0.138679176784256</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03500611437996234</v>
+        <v>0.0356643197185337</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3820811935.010155</v>
+        <v>4467449479.510838</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1105781808911515</v>
+        <v>0.08296582350446396</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02104865268183517</v>
+        <v>0.02781935478420528</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>44</v>
+      </c>
+      <c r="J76" t="n">
+        <v>94</v>
+      </c>
+      <c r="K76" t="n">
+        <v>136.7153081431157</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3162,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1414514606.415736</v>
+        <v>1804453827.560141</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1734019251549573</v>
+        <v>0.1733866344841809</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02805891163639771</v>
+        <v>0.02780932376844122</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3197,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3776646513.237215</v>
+        <v>2912130920.376947</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1135982855548762</v>
+        <v>0.1110245555348375</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04208468671282967</v>
+        <v>0.0395541491470069</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>48</v>
+      </c>
+      <c r="J78" t="n">
+        <v>94</v>
+      </c>
+      <c r="K78" t="n">
+        <v>74.60441887261952</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1481174759.159352</v>
+        <v>1785698074.046883</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1707578380653482</v>
+        <v>0.1264063236273608</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03869043342584921</v>
+        <v>0.02848703295059449</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4530225901.41322</v>
+        <v>4285732911.369003</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09140778167643433</v>
+        <v>0.1013791057427453</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02821777351414789</v>
+        <v>0.03743433671239953</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>45</v>
+      </c>
+      <c r="J80" t="n">
+        <v>95</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3521729739.875215</v>
+        <v>4335609613.263662</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08372420917974333</v>
+        <v>0.09887751741560449</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02108730478756876</v>
+        <v>0.02794667720064688</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>43</v>
+      </c>
+      <c r="J81" t="n">
+        <v>95</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5088528899.80095</v>
+        <v>4962283982.032804</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1964245497815915</v>
+        <v>0.2035639246790315</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02862326817351293</v>
+        <v>0.02449712172390102</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>61</v>
+      </c>
+      <c r="J82" t="n">
+        <v>95</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2347646420.589273</v>
+        <v>1612213401.382809</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1273154699108943</v>
+        <v>0.09549441634517854</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0401976923677347</v>
+        <v>0.02900803857842742</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2355839554.237079</v>
+        <v>2293664907.241824</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1174277268779391</v>
+        <v>0.07594751981768165</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03245804026628023</v>
+        <v>0.03538482837260858</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2910658746.484933</v>
+        <v>3220084014.563227</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1189008425398356</v>
+        <v>0.1401589165299583</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05597863229428206</v>
+        <v>0.04001347591465737</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>95</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2338217610.649971</v>
+        <v>2595892139.873667</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1097754186253563</v>
+        <v>0.1714949264151069</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01695157148914859</v>
+        <v>0.01877837177927952</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1265063647.276208</v>
+        <v>1200442053.625808</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1240096503351038</v>
+        <v>0.1780843016968616</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03795814898291729</v>
+        <v>0.03933503916987986</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3543,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3470216503.734477</v>
+        <v>3573575591.398673</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1404891504376992</v>
+        <v>0.1634648566651574</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02806449477477692</v>
+        <v>0.03013798038950161</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>94</v>
+      </c>
+      <c r="K88" t="n">
+        <v>113.5143719487534</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2203510775.492806</v>
+        <v>2629426178.534428</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1215923769163842</v>
+        <v>0.1221658151387013</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0267857368665278</v>
+        <v>0.02575989417481948</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1350823164.959145</v>
+        <v>1387912129.312495</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1121017620247587</v>
+        <v>0.09785707960973204</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0392408284202866</v>
+        <v>0.03747909070752048</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1967533973.518738</v>
+        <v>1375772353.287473</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1331797397956248</v>
+        <v>0.152736824435589</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04067753900637956</v>
+        <v>0.03823561304482315</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2374823142.761392</v>
+        <v>2704382104.746739</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08525221737232802</v>
+        <v>0.1033909071753695</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04155304874407007</v>
+        <v>0.04059394740124421</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3746878421.607252</v>
+        <v>3182720683.684048</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1155454501332194</v>
+        <v>0.1166332245377351</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04640218031976346</v>
+        <v>0.04091451045707587</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>43</v>
+      </c>
+      <c r="J93" t="n">
+        <v>93</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1899626925.252347</v>
+        <v>1806824597.485305</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1495570083370392</v>
+        <v>0.123955355885049</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03627468597818859</v>
+        <v>0.02889080310394821</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2675387023.507368</v>
+        <v>2831875161.496422</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1361661128669038</v>
+        <v>0.1303965828086446</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04669166429645023</v>
+        <v>0.0399093525556798</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2330592987.58585</v>
+        <v>1888006352.97387</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1301802035381518</v>
+        <v>0.1011073612333523</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04266386798742166</v>
+        <v>0.02900051601235623</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4589101049.670498</v>
+        <v>3715596396.38929</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1659434104167517</v>
+        <v>0.1617300095078132</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02260246636405028</v>
+        <v>0.01858717066851615</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>45</v>
+      </c>
+      <c r="J97" t="n">
+        <v>95</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2510358904.836072</v>
+        <v>2606191566.852793</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08908942327719592</v>
+        <v>0.08824855339109383</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02566213789732014</v>
+        <v>0.02999965797806708</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>93</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3109001546.151552</v>
+        <v>2145218966.989117</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1060221253704657</v>
+        <v>0.1274771716245874</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03227154458104887</v>
+        <v>0.0284171521608302</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3889668931.928976</v>
+        <v>3313964483.298009</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1688488498817384</v>
+        <v>0.1706497359689138</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02074409098178667</v>
+        <v>0.0170705659584273</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>38</v>
+      </c>
+      <c r="J100" t="n">
+        <v>95</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3413820665.698561</v>
+        <v>2435950575.450446</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1728886697839888</v>
+        <v>0.1958946901562402</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05669243812678523</v>
+        <v>0.05455928184759738</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
